--- a/biology/Médecine/Classe_ATC_R06/Classe_ATC_R06.xlsx
+++ b/biology/Médecine/Classe_ATC_R06/Classe_ATC_R06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC R06, dénommée « Antihistaminiques à usage systémique », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QR06[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique R de la classification, intitulé « Système respiratoire ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC R06, dénommée « Antihistaminiques à usage systémique », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QR06. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique R de la classification, intitulé « Système respiratoire ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>R06AA Aminoalkyl éthers
-R06AA01 Bromazine (en)
+          <t>R06AA Aminoalkyl éthers</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>R06AA01 Bromazine (en)
 R06AA02 Diphénhydramine
 R06AA04 Clémastine
 R06AA06 Chlorphénoxamine (en)
@@ -526,9 +543,43 @@
 R06AA54 Clémastine, associations
 R06AA56 Chlorphénoxamine, associations
 R06AA57 Diphénylpyraline, associations
-R06AA59 Doxylamine, associations
-R06AB Alkylamines substituées
-R06AB01 Bromphéniramine (en)
+R06AA59 Doxylamine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R06</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>R06A Antihistaminiques pour utilisation systémique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>R06AB Alkylamines substituées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>R06AB01 Bromphéniramine (en)
 R06AB02 Dexchlorphéniramine
 R06AB03 Dimétindène (en)
 R06AB04 Chlorphéniramine
@@ -538,18 +589,86 @@
 R06AB51 Bromphéniramine, associations
 R06AB52 Dexchlorphéniramine, associations
 R06AB54 Chlorphéniramine, associations
-R06AB56 Dexbromphéniramine, associations
-R06AC Éthylène diamines substituées
-R06AC01 Mépyramine (en)
+R06AB56 Dexbromphéniramine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R06</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>R06A Antihistaminiques pour utilisation systémique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>R06AC Éthylène diamines substituées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>R06AC01 Mépyramine (en)
 R06AC02 Histapyrrodine (en)
 R06AC03 Chloropyramine (en)
 R06AC04 Tripélennamine (en)
 R06AC05 Méthapyrilène (en)
 R06AC06 Thonzylamine (en)
 R06AC52 Histapyrrodine, associations
-R06AC53 Chloropyramine, associations
-R06AD Dérivés de la phénothiazine
-R06AD01 Alimémazine
+R06AC53 Chloropyramine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R06</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>R06A Antihistaminiques pour utilisation systémique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>R06AD Dérivés de la phénothiazine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>R06AD01 Alimémazine
 R06AD02 Prométhazine
 R06AD03 Thiéthylpérazine (en)
 R06AD04 Méthdilazine (en)
@@ -559,9 +678,43 @@
 R06AD08 Oxomémazine
 R06AD09 Isothipendyl
 R06AD52 Prométhazine, associations
-R06AD55 Hydroxyéthylprométhazine, associations
-R06AE Dérivés de la pipérazine
-R06AE01 Buclizine
+R06AD55 Hydroxyéthylprométhazine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R06</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>R06A Antihistaminiques pour utilisation systémique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>R06AE Dérivés de la pipérazine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>R06AE01 Buclizine
 R06AE03 Cyclizine
 R06AE04 Chlorcyclizine (en)
 R06AE05 Méclozine
@@ -570,11 +723,79 @@
 R06AE09 Lévocétirizine
 R06AE51 Buclizine, associations
 R06AE53 Cyclizine, associations
-R06AE55 Méclozine, associations
-R06AK Associations d'antihistaminiques
-Classe vide.
-R06AX Autres antihistaminiques pour usage systémique
-R06AX01 Bamipine (en)
+R06AE55 Méclozine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R06</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>R06A Antihistaminiques pour utilisation systémique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>R06AK Associations d'antihistaminiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_R06</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_R06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>R06A Antihistaminiques pour utilisation systémique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>R06AX Autres antihistaminiques pour usage systémique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>R06AX01 Bamipine (en)
 R06AX02 Cyproheptadine
 R06AX03 Thénalidine (en)
 R06AX04 Phénindamine (en)
